--- a/medicine/Premiers secours et secourisme/1re_Colonne_Mobile/1re_Colonne_Mobile.xlsx
+++ b/medicine/Premiers secours et secourisme/1re_Colonne_Mobile/1re_Colonne_Mobile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Fondée sous la dénomination de Groupe Mobile de Secours, la 1re Colonne Mobile, désignée par l'acronyme 1CMK (1re Colonne Mobile - Mobiele Kolone, en néerlandais) puis CMS (Colonne Mobile de Secours) est la première unité moderne de service de secours de la Croix-Rouge de Belgique. Fondée au lendemain de la seconde guerre mondiale, en 1948, elle disparaît 2003 dans une fusion qui donne naissance à l'Unité Communautaire d'Appui.
@@ -513,7 +525,9 @@
           <t>Dénominations successives</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Groupe Mobile de Secours ;
 1re Colonne Mobile de secours - Eerste Mobielehulp Kolone (1CMK) ;
@@ -545,9 +559,11 @@
           <t>La collaboration avec le Spéléo-Secours belge</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Déjà à l'époque des Groupes Mobiles de Secours, des conventions lient la Croix-Rouge et la Fédération Belge de Spéléologie. C'est dans ce cadre que les Groupes Mobiles de Secours furent le socle logistique et opérationnel du Spéléo-Secours belge[1] depuis les années 1950 jusqu'aux années 1970–1980.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Déjà à l'époque des Groupes Mobiles de Secours, des conventions lient la Croix-Rouge et la Fédération Belge de Spéléologie. C'est dans ce cadre que les Groupes Mobiles de Secours furent le socle logistique et opérationnel du Spéléo-Secours belge depuis les années 1950 jusqu'aux années 1970–1980.
 </t>
         </is>
       </c>
@@ -578,9 +594,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Section Aventure
-En 1995, la Colonne Mobile de Secours crée une section pour des jeunes de 14 à 16 ans, dénommée « Section Aventure »
-[2].
+          <t>Section Aventure</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>En 1995, la Colonne Mobile de Secours crée une section pour des jeunes de 14 à 16 ans, dénommée « Section Aventure »
+.
 Les activités sont orientées vers:
 la formation via le Brevet Européen de Premier Secours et quelques techniques de travail en équipe,
 le social via des activités pour la population
